--- a/templates/_scorecard.xlsx
+++ b/templates/_scorecard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome Roeser\Documents\finxter\git_repos\whs-calculation\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git_repos\whs-calculation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D52C9-C667-46CE-AE6E-934DB918F0E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9046E43-F41D-4939-832B-1BB6C171A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -551,7 +551,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>20</v>

--- a/templates/_scorecard.xlsx
+++ b/templates/_scorecard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\git_repos\whs-calculation\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome Roeser\Documents\finxter\git_repos\whs-calculation\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9046E43-F41D-4939-832B-1BB6C171A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA9CBD-9CF9-44E6-8890-C135BA593A97}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Par</t>
   </si>
   <si>
-    <t>Jerome</t>
-  </si>
-  <si>
     <t>Round Score</t>
   </si>
   <si>
@@ -119,13 +116,16 @@
   </si>
   <si>
     <t>Penalties</t>
+  </si>
+  <si>
+    <t>YOUR_NAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,9 +181,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,7 +494,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,51 +583,52 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>